--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SXR8_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SXR8_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.213678618251662e-05</v>
+        <v>0.0005872285879558626</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0005155390880132726</v>
+        <v>0.0004883076428534583</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01046734746594654</v>
+        <v>0.01043397926838639</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001095653629728574</v>
+        <v>0.0001088679233731171</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03729339500457984</v>
+        <v>-0.02976675928686789</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.007119536631024492</v>
+        <v>-0.006527089917753331</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0005155390880132726</v>
+        <v>0.0004883076428534583</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007224545978582131</v>
+        <v>0.00801620584509416</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03473543746003638</v>
+        <v>0.03280026882003129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0005416118420080118</v>
+        <v>-3.213678618251662e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0002113058867811989</v>
+        <v>-0.0005155390880132726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01125901483088793</v>
+        <v>0.01046734746594654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001267654149621543</v>
+        <v>0.0001095653629728574</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03479226491868248</v>
+        <v>-0.03729339500457984</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.006828717214573148</v>
+        <v>-0.007119536631024492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002113058867811989</v>
+        <v>-0.0005155390880132726</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008679044494101507</v>
+        <v>0.007224545978582131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03449291214322447</v>
+        <v>0.03473543746003638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0005093674523961003</v>
+        <v>0.0005416118420080118</v>
       </c>
       <c r="B4" t="n">
-        <v>2.017868907400187e-05</v>
+        <v>0.0002113058867811989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01048455805664354</v>
+        <v>0.01125901483088793</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001099259576431289</v>
+        <v>0.0001267654149621543</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.034112908455325</v>
+        <v>-0.03479226491868248</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.006227933660624629</v>
+        <v>-0.006828717214573148</v>
       </c>
       <c r="G4" t="n">
-        <v>2.017868907400187e-05</v>
+        <v>0.0002113058867811989</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007723350235677495</v>
+        <v>0.008679044494101507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02950601665383212</v>
+        <v>0.03449291214322447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0002663188203791091</v>
+        <v>0.0005093674523961003</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0002986214797886522</v>
+        <v>2.017868907400187e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01078609365744843</v>
+        <v>0.01048455805664354</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001163398163872493</v>
+        <v>0.0001099259576431289</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04165205776524661</v>
+        <v>-0.034112908455325</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.007135541931706818</v>
+        <v>-0.006227933660624629</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0002986214797886522</v>
+        <v>2.017868907400187e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007581509422169452</v>
+        <v>0.007723350235677495</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03501343487213249</v>
+        <v>0.02950601665383212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0004246769088846445</v>
+        <v>0.0002663188203791091</v>
       </c>
       <c r="B6" t="n">
-        <v>5.096332119369773e-05</v>
+        <v>-0.0002986214797886522</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01054720327343689</v>
+        <v>0.01078609365744843</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001112434968911978</v>
+        <v>0.0001163398163872493</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03338471239008467</v>
+        <v>-0.04165205776524661</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007236557008662714</v>
+        <v>-0.007135541931706818</v>
       </c>
       <c r="G6" t="n">
-        <v>5.096332119369773e-05</v>
+        <v>-0.0002986214797886522</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007729149441942029</v>
+        <v>0.007581509422169452</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03586968026421378</v>
+        <v>0.03501343487213249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.000688164314073477</v>
+        <v>0.0004246769088846445</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0006900760200388989</v>
+        <v>5.096332119369773e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01042579604199973</v>
+        <v>0.01054720327343689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001086972231093773</v>
+        <v>0.0001112434968911978</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04036607665920122</v>
+        <v>-0.03338471239008467</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00613698889505232</v>
+        <v>-0.007236557008662714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006900760200388989</v>
+        <v>5.096332119369773e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.007542954154944048</v>
+        <v>0.007729149441942029</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03012938670153109</v>
+        <v>0.03586968026421378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0006721022613152436</v>
+        <v>0.000688164314073477</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0008199898416525464</v>
+        <v>0.0006900760200388989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01055416092548718</v>
+        <v>0.01042579604199973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001113903128410805</v>
+        <v>0.0001086972231093773</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0314573279947381</v>
+        <v>-0.04036607665920122</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006213495117522672</v>
+        <v>-0.00613698889505232</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0008199898416525464</v>
+        <v>0.0006900760200388989</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007892547201816813</v>
+        <v>0.007542954154944048</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03870958821667148</v>
+        <v>0.03012938670153109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0003887640714552127</v>
+        <v>0.0006721022613152436</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001369257859977769</v>
+        <v>0.0008199898416525464</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01062938259688989</v>
+        <v>0.01055416092548718</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001129837743910656</v>
+        <v>0.0001113903128410805</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02951229961789148</v>
+        <v>-0.0314573279947381</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.007204679261562708</v>
+        <v>-0.006213495117522672</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001369257859977769</v>
+        <v>0.0008199898416525464</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007674912658016565</v>
+        <v>0.007892547201816813</v>
       </c>
       <c r="I9" t="n">
-        <v>0.032948880015083</v>
+        <v>0.03870958821667148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0.0003887640714552127</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0001369257859977769</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01062938259688989</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0001129837743910656</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.02951229961789148</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.007204679261562708</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0001369257859977769</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.007674912658016565</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.032948880015083</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>0.0003533121951416351</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>0.0003765561970595632</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.01077589925846696</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>0.0001161200048286288</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E11" t="n">
         <v>-0.03244925232258</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.007258189302065149</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.0003765561970595632</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.007605921033382923</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.03209958876481189</v>
       </c>
     </row>
